--- a/biology/Biologie cellulaire et moléculaire/Gène_LHX9/Gène_LHX9.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Gène_LHX9/Gène_LHX9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A8ne_LHX9</t>
+          <t>Gène_LHX9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LHX9 (gène LIM Homebox 9) est un gène homéotique notamment chez l'humain[1], c'est-à-dire qu'il est exprimé au cours du développement embryonnaire et peut par conséquent soit réguler soit déclencher l'expression d'autres loci génétiques, tels SF1 et WT1[2].
-Chez la souris, il est impliqué dans l'apparition des gonades[1]. Son invalidation dans les souris KO entraîne une agénésie des gonades[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LHX9 (gène LIM Homebox 9) est un gène homéotique notamment chez l'humain, c'est-à-dire qu'il est exprimé au cours du développement embryonnaire et peut par conséquent soit réguler soit déclencher l'expression d'autres loci génétiques, tels SF1 et WT1.
+Chez la souris, il est impliqué dans l'apparition des gonades. Son invalidation dans les souris KO entraîne une agénésie des gonades,.
 </t>
         </is>
       </c>
